--- a/data/trans_dic/P41_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P41_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +533,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que tiene contrato temporal en la actualidad</t>
+          <t>Población que tiene contrato temporal en la actualidad (tasa de respuesta: 99,49%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +557,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -594,57 +607,87 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -666,6 +709,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -680,77 +729,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>55,03%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>69,27%</t>
+          <t>15,96%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>49,07%</t>
+          <t>14,55%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>56,66%</t>
+          <t>15,45%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>32,81%</t>
+          <t>14,39%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>52,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>46,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>40,75%</t>
+          <t>7,06%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>40,24%</t>
+          <t>5,57%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>40,54%</t>
+          <t>4,98%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>53,88%</t>
+          <t>5,71%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>60,43%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>45,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>50,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>35,98%</t>
+          <t>5,84%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>10,21%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>9,36%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>10,11%</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>7,97%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -763,77 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>40,13; 69,35</t>
+          <t>1,04; 10,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>53,93; 84,47</t>
+          <t>6,88; 40,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>36,17; 64,65</t>
+          <t>9,32; 26,62</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>41,26; 73,11</t>
+          <t>9,86; 27,99</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>23,5; 43,47</t>
+          <t>1,91; 43,62</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>34,6; 69,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>29,44; 63,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>28,09; 53,95</t>
+          <t>3,76; 12,84</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>27,29; 54,06</t>
+          <t>3,05; 10,09</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>30,09; 51,77</t>
+          <t>2,95; 8,3</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>43,22; 64,67</t>
+          <t>3,71; 8,79</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>48,8; 74,23</t>
+          <t>1,56; 6,83</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>36,52; 57,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>40,77; 63,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>28,57; 44,27</t>
+          <t>3,0; 9,37</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>5,76; 23,71</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>6,28; 15,49</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>7,21; 15,71</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>2,47; 24,15</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -850,77 +959,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>30,07%</t>
+          <t>9,86%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>29,97%</t>
+          <t>12,17%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>31,93%</t>
+          <t>13,58%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>34,37%</t>
+          <t>14,96%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>37,22%</t>
+          <t>7,43%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>34,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>34,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>33,27%</t>
+          <t>7,15%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>33,47%</t>
+          <t>8,8%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>40,05%</t>
+          <t>9,88%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>32,02%</t>
+          <t>10,45%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>31,95%</t>
+          <t>10,07%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>32,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>34,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>38,29%</t>
+          <t>8,44%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>10,44%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>11,72%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>12,8%</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>8,76%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -933,77 +1072,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>24,2; 35,93</t>
+          <t>6,14; 15,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>23,64; 38,26</t>
+          <t>8,67; 18,35</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>26,35; 38,73</t>
+          <t>10,27; 17,74</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>28,21; 41,11</t>
+          <t>11,85; 18,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>30,33; 44,31</t>
+          <t>4,59; 10,99</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>28,88; 41,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>27,29; 42,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>27,1; 39,5</t>
+          <t>4,78; 10,44</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>27,37; 39,96</t>
+          <t>5,94; 12,41</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>32,68; 47,41</t>
+          <t>7,7; 12,66</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>27,66; 36,35</t>
+          <t>8,27; 13,08</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>27,04; 37,3</t>
+          <t>7,16; 14,3</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>27,61; 36,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>29,7; 38,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>32,97; 43,2</t>
+          <t>6,31; 11,06</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>8,02; 13,25</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>9,66; 14,21</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>10,93; 15,16</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>6,43; 11,15</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1020,77 +1189,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>21,48%</t>
+          <t>10,22%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>22,71%</t>
+          <t>13,77%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>23,73%</t>
+          <t>13,02%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>24,18%</t>
+          <t>15,16%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>26,24%</t>
+          <t>7,66%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>30,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>26,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>27,78%</t>
+          <t>15,75%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>29,61%</t>
+          <t>14,1%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>34,08%</t>
+          <t>16,74%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>26,16%</t>
+          <t>19,04%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>24,7%</t>
+          <t>13,68%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>25,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>27,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>30,37%</t>
+          <t>13,2%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>13,94%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>14,98%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>17,15%</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>10,81%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1103,84 +1302,114 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,23; 28,83</t>
+          <t>6,48; 15,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16,52; 30,7</t>
+          <t>9,26; 20,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>18,56; 29,49</t>
+          <t>9,95; 17,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>19,13; 30,06</t>
+          <t>11,85; 19,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>18,36; 35,18</t>
+          <t>4,07; 16,2</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>25,14; 36,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>21,43; 33,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>22,92; 32,71</t>
+          <t>11,62; 20,89</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>25,18; 34,89</t>
+          <t>10,71; 18,46</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>26,89; 41,4</t>
+          <t>13,49; 20,32</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>22,44; 30,78</t>
+          <t>15,77; 22,48</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>19,98; 29,72</t>
+          <t>10,49; 17,88</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>22,38; 29,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>23,48; 30,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>25,26; 36,37</t>
+          <t>10,15; 16,59</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>11,33; 17,71</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>12,45; 17,67</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>14,91; 19,8</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>8,25; 14,42</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1190,77 +1419,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>28,62%</t>
+          <t>13,14%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>30,75%</t>
+          <t>14,83%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>31,02%</t>
+          <t>15,36%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>32,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>33,4%</t>
+          <t>10,17%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>33,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>31,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>31,08%</t>
+          <t>10,88%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>31,99%</t>
+          <t>10,87%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>37,76%</t>
+          <t>11,85%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>31,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>31,16%</t>
+          <t>8,31%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>31,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>32,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>35,29%</t>
+          <t>12,01%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>12,88%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>13,72%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>9,29%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1273,90 +1532,2313 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>25,0; 33,46</t>
+          <t>10,81; 16,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>25,97; 36,43</t>
+          <t>11,37; 20,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>26,88; 35,53</t>
+          <t>11,12; 20,83</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>28,82; 38,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>29,09; 38,16</t>
+          <t>6,52; 16,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,81; 38,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>27,02; 36,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>27,52; 34,87</t>
+          <t>8,76; 12,86</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>28,29; 35,83</t>
+          <t>8,17; 13,74</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>33,0; 42,67</t>
+          <t>8,86; 16,03</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>28,11; 33,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>27,88; 34,95</t>
+          <t>5,73; 11,28</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>28,54; 34,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>29,48; 35,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>31,89; 38,75</t>
+          <t>10,38; 13,8</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>10,76; 15,71</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>11,07; 17,17</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>6,87; 13,42</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>11,56%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>14,0%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>14,04%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>15,13%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>9,27%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>10,58%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>10,37%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>11,24%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>12,06%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>9,32%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>11,06%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>12,15%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>12,62%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>13,58%</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>9,3%</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>9,78; 13,8</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>11,58; 17,13</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>11,94; 16,8</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>12,8; 18,16</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>6,74; 14,24</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>9,15; 12,2</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>8,91; 12,16</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>9,77; 12,92</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>10,54; 13,88</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>7,72; 11,0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>9,89; 12,41</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>10,57; 13,94</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>11,26; 14,01</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>11,96; 15,06</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>7,76; 12,05</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que tiene contrato temporal en la actualidad (tasa de respuesta: 99,49%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>10029</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>54132</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>77172</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>112547</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>64088</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>18486</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>23376</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>31324</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>50581</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>21742</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>28515</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>77508</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>108496</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>163128</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>85830</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2347; 23225</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>23328; 136377</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>49417; 141126</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>71820; 203855</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>8498; 194207</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>9840; 33601</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>12798; 42336</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>18584; 52242</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>32799; 77784</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>9836; 43146</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>14648; 45751</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>43703; 179913</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>72790; 179593</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>116299; 253543</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>26594; 259937</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>157.0</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>64178</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>113518</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>162821</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>241518</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>77963</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>51136</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>86876</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>119700</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>155301</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>106371</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>115314</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>200393</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>282521</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>396819</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>184334</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>39981; 98383</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>80867; 171104</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>123130; 212799</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>191405; 299118</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>48133; 115231</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>34190; 74647</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>58607; 122567</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>93253; 153383</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>122872; 194401</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>75653; 151052</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>86241; 151086</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>153888; 254416</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>232912; 342657</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>338901; 470042</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>135455; 234759</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>167.0</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>46584</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>98112</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>109610</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>165383</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>62464</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>83753</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>108084</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>156304</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>218963</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>122120</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>130338</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>206197</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>265914</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>384346</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>184585</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>29524; 70540</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>66009; 143406</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>83737; 143971</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>129286; 208778</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>33209; 132133</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>61785; 111095</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>82100; 141499</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>125960; 189738</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>181417; 258509</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>93661; 159582</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>100175; 163828</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>167568; 261882</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>220992; 313677</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>334039; 443577</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>140940; 246364</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>201.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>277832</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>214718</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>131756</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>110084</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>227278</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>152114</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>89302</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>80908</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>505110</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>366832</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>221057</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>190992</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>228479; 341847</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>164667; 294353</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>95388; 178633</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>70565; 178552</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>183026; 268787</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>114363; 192339</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>66794; 120790</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>55764; 109863</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>436229; 580344</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>306451; 447457</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>178391; 276684</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>141186; 275967</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>148.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>172.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>178.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>170.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>186.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>202.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>129.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>318.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>278.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>358.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>380.0</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>194.0</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>398623</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>480480</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>481358</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>519448</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>314600</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>380653</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>370450</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>396629</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>424845</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>331141</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>779276</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>850929</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>877988</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>944293</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>645740</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>337065; 475711</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>397333; 587912</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>409333; 576131</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>439514; 623446</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>228522; 483120</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>329395; 439163</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>318439; 434583</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>344693; 455870</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>371184; 488846</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>274259; 391079</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>696869; 874482</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>740612; 976693</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>783506; 974446</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>831657; 1047404</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>539088; 836848</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
